--- a/ML_LR5.xlsx
+++ b/ML_LR5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N204"/>
+  <dimension ref="A1:M204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>год</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>янв</t>
@@ -492,11 +497,6 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>дек</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>за год</t>
         </is>
       </c>
     </row>
@@ -566,11 +566,6 @@
           <t>-2.8</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -638,11 +633,6 @@
           <t>-6.6</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -710,11 +700,6 @@
           <t>-2.8</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -782,11 +767,6 @@
           <t>-1.4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -854,11 +834,6 @@
           <t>-7.1</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -926,11 +901,6 @@
           <t>-3.5</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -998,11 +968,6 @@
           <t>-9.8</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1070,11 +1035,6 @@
           <t>-14.9</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1142,11 +1102,6 @@
           <t>-13.3</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1214,11 +1169,6 @@
           <t>-5.3</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1286,11 +1236,6 @@
           <t>-8.4</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1358,11 +1303,6 @@
           <t>-10.9</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1430,11 +1370,6 @@
           <t>-7.3</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1502,11 +1437,6 @@
           <t>-7.8</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1574,11 +1504,6 @@
           <t>-4.8</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1646,11 +1571,6 @@
           <t>-5.6</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1718,11 +1638,6 @@
           <t>-12.1</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1790,11 +1705,6 @@
           <t>-5.7</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1862,11 +1772,6 @@
           <t>-18.7</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1934,11 +1839,6 @@
           <t>-14.1</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2006,11 +1906,6 @@
           <t>-6.4</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2078,11 +1973,6 @@
           <t>-5.6</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2150,11 +2040,6 @@
           <t>-5.5</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2222,11 +2107,6 @@
           <t>-11.4</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2294,11 +2174,6 @@
           <t>-5.3</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2366,11 +2241,6 @@
           <t>-8.1</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2438,11 +2308,6 @@
           <t>-8.0</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2510,11 +2375,6 @@
           <t>-10.0</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2582,11 +2442,6 @@
           <t>-10.8</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2654,11 +2509,6 @@
           <t>-5.0</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2726,11 +2576,6 @@
           <t>-4.3</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2798,11 +2643,6 @@
           <t>-6.3</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -2870,11 +2710,6 @@
           <t>-8.4</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2942,11 +2777,6 @@
           <t>-2.6</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3014,11 +2844,6 @@
           <t>-14.8</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3086,11 +2911,6 @@
           <t>-3.8</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3158,11 +2978,6 @@
           <t>-4.0</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3230,11 +3045,6 @@
           <t>-4.7</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3302,11 +3112,6 @@
           <t>-8.9</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3374,11 +3179,6 @@
           <t>-13.1</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3446,11 +3246,6 @@
           <t>-8.4</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3518,11 +3313,6 @@
           <t>-13.2</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3590,11 +3380,6 @@
           <t>-5.7</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -3662,11 +3447,6 @@
           <t>-10.2</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3734,11 +3514,6 @@
           <t>-5.8</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -3806,11 +3581,6 @@
           <t>-5.7</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3878,11 +3648,6 @@
           <t>-12.4</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3950,11 +3715,6 @@
           <t>-4.8</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4022,11 +3782,6 @@
           <t>-3.8</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4094,11 +3849,6 @@
           <t>-15.1</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4166,11 +3916,6 @@
           <t>-3.8</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4238,11 +3983,6 @@
           <t>-4.8</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4310,11 +4050,6 @@
           <t>-4.5</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -4382,11 +4117,6 @@
           <t>-3.0</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4454,11 +4184,6 @@
           <t>-16.8</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -4526,11 +4251,6 @@
           <t>-17.8</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -4598,11 +4318,6 @@
           <t>-11.6</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -4670,11 +4385,6 @@
           <t>-4.0</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -4742,11 +4452,6 @@
           <t>-10.6</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -4814,11 +4519,6 @@
           <t>-6.4</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -4886,11 +4586,6 @@
           <t>-7.8</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -4958,11 +4653,6 @@
           <t>-12.7</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5030,11 +4720,6 @@
           <t>-5.0</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5102,11 +4787,6 @@
           <t>-3.8</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -5174,11 +4854,6 @@
           <t>-6.9</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -5246,11 +4921,6 @@
           <t>-2.2</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -5318,11 +4988,6 @@
           <t>-5.7</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -5390,11 +5055,6 @@
           <t>-14.1</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -5462,11 +5122,6 @@
           <t>-8.5</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -5534,11 +5189,6 @@
           <t>-13.8</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -5606,11 +5256,6 @@
           <t>-4.3</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -5678,11 +5323,6 @@
           <t>-13.0</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -5750,11 +5390,6 @@
           <t>-6.4</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -5822,11 +5457,6 @@
           <t>-7.1</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -5894,11 +5524,6 @@
           <t>-11.9</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -5966,11 +5591,6 @@
           <t>-10.9</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6038,11 +5658,6 @@
           <t>-10.7</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -6110,11 +5725,6 @@
           <t>-4.1</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -6182,11 +5792,6 @@
           <t>-11.6</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -6254,11 +5859,6 @@
           <t>-6.6</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -6326,11 +5926,6 @@
           <t>-9.3</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -6398,11 +5993,6 @@
           <t>-12.4</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -6470,11 +6060,6 @@
           <t>-7.9</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -6542,11 +6127,6 @@
           <t>-8.2</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -6614,11 +6194,6 @@
           <t>-5.5</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -6686,11 +6261,6 @@
           <t>-7.7</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -6758,11 +6328,6 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -6830,11 +6395,6 @@
           <t>-9.6</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -6902,11 +6462,6 @@
           <t>-4.0</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -6974,11 +6529,6 @@
           <t>-3.0</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -7046,11 +6596,6 @@
           <t>-6.7</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -7118,11 +6663,6 @@
           <t>-3.7</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -7190,11 +6730,6 @@
           <t>-5.2</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -7262,11 +6797,6 @@
           <t>-4.3</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -7334,11 +6864,6 @@
           <t>-10.1</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -7406,11 +6931,6 @@
           <t>-8.4</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -7478,11 +6998,6 @@
           <t>-8.1</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -7550,11 +7065,6 @@
           <t>-7.5</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -7622,11 +7132,6 @@
           <t>-8.5</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -7694,11 +7199,6 @@
           <t>-9.1</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -7766,11 +7266,6 @@
           <t>-9.2</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -7838,11 +7333,6 @@
           <t>-6.4</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -7910,11 +7400,6 @@
           <t>-7.2</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -7982,11 +7467,6 @@
           <t>-7.4</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -8054,11 +7534,6 @@
           <t>-6.9</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -8126,11 +7601,6 @@
           <t>-10.1</t>
         </is>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -8198,11 +7668,6 @@
           <t>-11.6</t>
         </is>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -8270,11 +7735,6 @@
           <t>-7.3</t>
         </is>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -8342,11 +7802,6 @@
           <t>-6.0</t>
         </is>
       </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -8414,11 +7869,6 @@
           <t>-10.4</t>
         </is>
       </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -8486,11 +7936,6 @@
           <t>-7.3</t>
         </is>
       </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -8558,11 +8003,6 @@
           <t>-1.4</t>
         </is>
       </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -8630,11 +8070,6 @@
           <t>-14.7</t>
         </is>
       </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -8702,11 +8137,6 @@
           <t>-9.9</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -8774,11 +8204,6 @@
           <t>-5.6</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -8846,11 +8271,6 @@
           <t>-2.5</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -8918,11 +8338,6 @@
           <t>-8.4</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -8990,11 +8405,6 @@
           <t>-10.5</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -9062,11 +8472,6 @@
           <t>-7.4</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -9134,11 +8539,6 @@
           <t>-7.6</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -9206,11 +8606,6 @@
           <t>-12.8</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -9278,11 +8673,6 @@
           <t>-7.7</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -9350,11 +8740,6 @@
           <t>-3.7</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -9422,11 +8807,6 @@
           <t>-8.8</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -9494,11 +8874,6 @@
           <t>-9.8</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -9566,11 +8941,6 @@
           <t>-7.8</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -9638,11 +9008,6 @@
           <t>-3.8</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -9710,11 +9075,6 @@
           <t>-4.7</t>
         </is>
       </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -9782,11 +9142,6 @@
           <t>-4.4</t>
         </is>
       </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -9854,11 +9209,6 @@
           <t>-5.6</t>
         </is>
       </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -9926,11 +9276,6 @@
           <t>-1.2</t>
         </is>
       </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -9998,11 +9343,6 @@
           <t>-5.9</t>
         </is>
       </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -10070,11 +9410,6 @@
           <t>-5.6</t>
         </is>
       </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -10142,11 +9477,6 @@
           <t>-5.0</t>
         </is>
       </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -10214,11 +9544,6 @@
           <t>-14.3</t>
         </is>
       </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -10286,11 +9611,6 @@
           <t>-4.2</t>
         </is>
       </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -10358,11 +9678,6 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -10430,11 +9745,6 @@
           <t>-7.6</t>
         </is>
       </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -10502,11 +9812,6 @@
           <t>-11.0</t>
         </is>
       </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -10574,11 +9879,6 @@
           <t>0.2</t>
         </is>
       </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -10646,11 +9946,6 @@
           <t>-8.1</t>
         </is>
       </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -10718,11 +10013,6 @@
           <t>-7.4</t>
         </is>
       </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -10790,11 +10080,6 @@
           <t>-8.8</t>
         </is>
       </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -10862,11 +10147,6 @@
           <t>-2.9</t>
         </is>
       </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -10934,11 +10214,6 @@
           <t>-1.5</t>
         </is>
       </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -11006,11 +10281,6 @@
           <t>-10.5</t>
         </is>
       </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -11078,11 +10348,6 @@
           <t>-9.6</t>
         </is>
       </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -11150,11 +10415,6 @@
           <t>-5.3</t>
         </is>
       </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -11222,11 +10482,6 @@
           <t>-9.2</t>
         </is>
       </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -11294,11 +10549,6 @@
           <t>-5.9</t>
         </is>
       </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -11366,11 +10616,6 @@
           <t>-5.7</t>
         </is>
       </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -11438,11 +10683,6 @@
           <t>-0.9</t>
         </is>
       </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -11510,11 +10750,6 @@
           <t>-5.9</t>
         </is>
       </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -11582,11 +10817,6 @@
           <t>-2.3</t>
         </is>
       </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -11654,11 +10884,6 @@
           <t>-4.0</t>
         </is>
       </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -11726,11 +10951,6 @@
           <t>-3.7</t>
         </is>
       </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -11798,11 +11018,6 @@
           <t>-8.2</t>
         </is>
       </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -11870,11 +11085,6 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -11942,11 +11152,6 @@
           <t>-5.7</t>
         </is>
       </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -12014,11 +11219,6 @@
           <t>-4.2</t>
         </is>
       </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -12086,11 +11286,6 @@
           <t>-3.5</t>
         </is>
       </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -12158,11 +11353,6 @@
           <t>-1.1</t>
         </is>
       </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -12230,11 +11420,6 @@
           <t>-3.2</t>
         </is>
       </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -12302,11 +11487,6 @@
           <t>-9.6</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -12374,11 +11554,6 @@
           <t>-6.5</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -12446,11 +11621,6 @@
           <t>-7.5</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -12518,11 +11688,6 @@
           <t>-7.0</t>
         </is>
       </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -12590,11 +11755,6 @@
           <t>-6.9</t>
         </is>
       </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -12662,11 +11822,6 @@
           <t>-5.3</t>
         </is>
       </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -12734,11 +11889,6 @@
           <t>-3.4</t>
         </is>
       </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -12806,11 +11956,6 @@
           <t>-4.0</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -12878,11 +12023,6 @@
           <t>-4.4</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -12950,11 +12090,6 @@
           <t>-3.6</t>
         </is>
       </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -13022,11 +12157,6 @@
           <t>-7.9</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -13094,11 +12224,6 @@
           <t>-9.5</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -13166,11 +12291,6 @@
           <t>-7.0</t>
         </is>
       </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -13238,11 +12358,6 @@
           <t>-7.5</t>
         </is>
       </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -13310,11 +12425,6 @@
           <t>-5.9</t>
         </is>
       </c>
-      <c r="N179" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -13382,11 +12492,6 @@
           <t>-1.7</t>
         </is>
       </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -13454,11 +12559,6 @@
           <t>-2.6</t>
         </is>
       </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -13526,11 +12626,6 @@
           <t>-10.6</t>
         </is>
       </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -13598,11 +12693,6 @@
           <t>-12.6</t>
         </is>
       </c>
-      <c r="N183" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -13670,11 +12760,6 @@
           <t>-2.1</t>
         </is>
       </c>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -13742,11 +12827,6 @@
           <t>-2.9</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -13814,11 +12894,6 @@
           <t>-4.1</t>
         </is>
       </c>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -13886,11 +12961,6 @@
           <t>1.2</t>
         </is>
       </c>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -13958,11 +13028,6 @@
           <t>-2.0</t>
         </is>
       </c>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -14030,11 +13095,6 @@
           <t>-1.8</t>
         </is>
       </c>
-      <c r="N189" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -14102,11 +13162,6 @@
           <t>-6.5</t>
         </is>
       </c>
-      <c r="N190" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -14174,11 +13229,6 @@
           <t>-7.6</t>
         </is>
       </c>
-      <c r="N191" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -14246,11 +13296,6 @@
           <t>-0.1</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -14318,11 +13363,6 @@
           <t>-8.6</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -14390,11 +13430,6 @@
           <t>-1.7</t>
         </is>
       </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -14462,11 +13497,6 @@
           <t>-3.9</t>
         </is>
       </c>
-      <c r="N195" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -14534,11 +13564,6 @@
           <t>0.2</t>
         </is>
       </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -14606,11 +13631,6 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -14678,11 +13698,6 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -14750,11 +13765,6 @@
           <t>-5.6</t>
         </is>
       </c>
-      <c r="N199" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -14822,11 +13832,6 @@
           <t>0.8</t>
         </is>
       </c>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -14894,11 +13899,6 @@
           <t>-4.4</t>
         </is>
       </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -14966,11 +13966,6 @@
           <t>-7.0</t>
         </is>
       </c>
-      <c r="N202" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -15038,11 +14033,6 @@
           <t>-4.1</t>
         </is>
       </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -15108,11 +14098,6 @@
       <c r="M204" t="inlineStr">
         <is>
           <t>-4.5</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>7.2</t>
         </is>
       </c>
     </row>
